--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -1,40 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Skole\_UIA\IT\IS-114\Git\Oblig5-privat\barnehage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30882578-3D81-44B2-93C3-9522D96F4C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="foresatt" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="barnehage" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="barn" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="soknad" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="foresatt" sheetId="1" r:id="rId1"/>
+    <sheet name="barnehage" sheetId="2" r:id="rId2"/>
+    <sheet name="barn" sheetId="3" r:id="rId3"/>
+    <sheet name="soknad" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+  <si>
+    <t>foresatt_id</t>
+  </si>
+  <si>
+    <t>foresatt_navn</t>
+  </si>
+  <si>
+    <t>foresatt_adresse</t>
+  </si>
+  <si>
+    <t>foresatt_tlfnr</t>
+  </si>
+  <si>
+    <t>foresatt_pnr</t>
+  </si>
+  <si>
+    <t>Kristin Norge</t>
+  </si>
+  <si>
+    <t>Kristiansand</t>
+  </si>
+  <si>
+    <t>22233666</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>Jon Norge</t>
+  </si>
+  <si>
+    <t>barnehage_id</t>
+  </si>
+  <si>
+    <t>barnehage_navn</t>
+  </si>
+  <si>
+    <t>barnehage_antall_plasser</t>
+  </si>
+  <si>
+    <t>barnehage_ledige_plasser</t>
+  </si>
+  <si>
+    <t>Sunshine Preschool</t>
+  </si>
+  <si>
+    <t>Happy Days Nursery</t>
+  </si>
+  <si>
+    <t>123 Learning Center</t>
+  </si>
+  <si>
+    <t>ABC Kindergarten</t>
+  </si>
+  <si>
+    <t>Tiny Tots Academy</t>
+  </si>
+  <si>
+    <t>Giggles and Grins Childcare</t>
+  </si>
+  <si>
+    <t>Playful Pals Daycare</t>
+  </si>
+  <si>
+    <t>barn_id</t>
+  </si>
+  <si>
+    <t>barn_pnr</t>
+  </si>
+  <si>
+    <t>sok_id</t>
+  </si>
+  <si>
+    <t>foresatt_1</t>
+  </si>
+  <si>
+    <t>foresatt_2</t>
+  </si>
+  <si>
+    <t>barn_1</t>
+  </si>
+  <si>
+    <t>fr_barnevern</t>
+  </si>
+  <si>
+    <t>fr_sykd_familie</t>
+  </si>
+  <si>
+    <t>fr_sykd_barn</t>
+  </si>
+  <si>
+    <t>fr_annet</t>
+  </si>
+  <si>
+    <t>barnehager_prioritert</t>
+  </si>
+  <si>
+    <t>sosken__i_barnehagen</t>
+  </si>
+  <si>
+    <t>tidspunkt_oppstart</t>
+  </si>
+  <si>
+    <t>brutto_inntekt</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,93 +174,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,44 +498,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_navn</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_adresse</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_tlfnr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_pnr</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -469,171 +575,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>barnehage_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>barnehage_navn</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>barnehage_antall_plasser</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>barnehage_ledige_plasser</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sunshine Preschool</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Happy Days Nursery</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>123 Learning Center</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ABC Kindergarten</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tiny Tots Academy</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Giggles and Grins Childcare</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Playful Pals Daycare</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>40</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6</v>
       </c>
     </row>
@@ -643,29 +729,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>barn_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>barn_pnr</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -674,79 +765,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sok_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>foresatt_2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>barn_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fr_barnevern</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fr_sykd_familie</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fr_sykd_barn</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>fr_annet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>barnehager_prioritert</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sosken__i_barnehagen</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tidspunkt_oppstart</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>brutto_inntekt</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Skole\_UIA\IT\IS-114\Git\Oblig5-privat\barnehage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30882578-3D81-44B2-93C3-9522D96F4C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2AFA1-2941-4685-8813-BBE36929C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="1395" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foresatt" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>foresatt_id</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Kristiansand</t>
   </si>
   <si>
-    <t>22233666</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
     <t>Jon Norge</t>
   </si>
   <si>
@@ -130,13 +124,13 @@
     <t>brutto_inntekt</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5454</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>2024-11-20</t>
-  </si>
-  <si>
-    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -499,18 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -534,19 +521,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,19 +529,47 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4">
+        <v>22233666</v>
+      </c>
+      <c r="F4">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>22233666</v>
+      </c>
+      <c r="F5">
+        <v>12345678901</v>
       </c>
     </row>
   </sheetData>
@@ -578,30 +581,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -629,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -646,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -663,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -680,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -697,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -714,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -730,22 +725,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +744,18 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>12345678901</v>
       </c>
     </row>
   </sheetData>
@@ -766,61 +765,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -828,25 +814,45 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
+      <c r="M3">
+        <v>2221</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -476,15 +476,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>34323434</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12345678921</t>
-        </is>
+      <c r="E2" t="n">
+        <v>34323434</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12345678921</v>
       </c>
     </row>
     <row r="3">
@@ -504,15 +500,11 @@
           <t>Norge</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23334343</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12345678922</t>
-        </is>
+      <c r="E3" t="n">
+        <v>23334343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12345678922</v>
       </c>
     </row>
     <row r="4">
@@ -532,15 +524,11 @@
           <t>Kristiansand</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22233666</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12345678901</t>
-        </is>
+      <c r="E4" t="n">
+        <v>22233666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12345678901</v>
       </c>
     </row>
     <row r="5">
@@ -560,15 +548,11 @@
           <t>Kristiansand</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22233666</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12345678901</t>
-        </is>
+      <c r="E5" t="n">
+        <v>22233666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12345678901</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +767,8 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12345678911</t>
-        </is>
+      <c r="C2" t="n">
+        <v>12345678911</v>
       </c>
     </row>
     <row r="3">
@@ -796,10 +778,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12345678901</t>
-        </is>
+      <c r="C3" t="n">
+        <v>12345678901</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +894,8 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="M2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -959,10 +937,8 @@
           <t>2024-11-21</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2121323</t>
-        </is>
+      <c r="M3" t="n">
+        <v>2121323</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,67 +468,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jill</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>34323434</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12345678921</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Norge</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>23334343</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12345678922</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kristin Norge</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kristiansand</t>
-        </is>
-      </c>
+          <t>Jill</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>22233666</v>
+        <v>34323434</v>
       </c>
       <c r="F4" t="n">
-        <v>12345678901</v>
+        <v>12345678921</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +512,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23334343</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12345678922</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kristin Norge</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>22233666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Jon Norge</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Kristiansand</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>22233666</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" t="n">
         <v>12345678901</v>
       </c>
     </row>
@@ -740,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,20 +789,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12345678911</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12345678911</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12345678901</v>
       </c>
     </row>
@@ -793,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,24 +901,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
@@ -895,7 +924,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="3">
@@ -903,41 +932,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>1, 2, 3, 4</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>2121323</v>
       </c>
     </row>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -470,10 +470,22 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>knsjndkfnj</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nfknkfndk</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>232121232</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434345</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -482,10 +494,22 @@
       <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>snnsjfndjs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nkfnkfndk</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>122232</v>
+      </c>
+      <c r="F3" t="n">
+        <v>121213342</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -496,15 +520,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jill</t>
+          <t>Schlorpt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>34323434</v>
+        <v>8374363</v>
       </c>
       <c r="F4" t="n">
-        <v>12345678921</v>
+        <v>12345678901</v>
       </c>
     </row>
     <row r="5">
@@ -516,19 +540,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Glorpo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Norge</t>
+          <t>Tilted Towers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23334343</v>
+        <v>75757</v>
       </c>
       <c r="F5" t="n">
-        <v>12345678922</v>
+        <v>100922846373</v>
       </c>
     </row>
     <row r="6">
@@ -540,19 +564,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kristin Norge</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kristiansand</t>
-        </is>
-      </c>
+          <t>Schlorpt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>22233666</v>
+        <v>757574</v>
       </c>
       <c r="F6" t="n">
-        <v>12345678901</v>
+        <v>230323434543</v>
       </c>
     </row>
     <row r="7">
@@ -564,19 +584,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jon Norge</t>
+          <t>Glorpo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Tilted Towers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22233666</v>
+        <v>9865463</v>
       </c>
       <c r="F7" t="n">
-        <v>12345678901</v>
+        <v>100922846373</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +811,9 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>343434</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -801,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12345678911</v>
+        <v>10070467433</v>
       </c>
     </row>
     <row r="4">
@@ -812,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12345678901</v>
+        <v>10070467433</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -924,7 +946,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>2121</v>
+        <v>23232</v>
       </c>
     </row>
     <row r="3">
@@ -945,21 +967,17 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2,5,3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="4">
@@ -979,30 +997,18 @@
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
+          <t>1,3,4,5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>2121323</v>
+        <v>736372</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,67 +468,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>knsjndkfnj</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nfknkfndk</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>232121232</v>
-      </c>
-      <c r="F2" t="n">
-        <v>434345</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>snnsjfndjs</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nkfnkfndk</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>122232</v>
-      </c>
-      <c r="F3" t="n">
-        <v>121213342</v>
-      </c>
+          <t>Glorpo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Schlorpt</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>knsjndkfnj</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nfknkfndk</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>8374363</v>
+        <v>232121232</v>
       </c>
       <c r="F4" t="n">
-        <v>12345678901</v>
+        <v>434345</v>
       </c>
     </row>
     <row r="5">
@@ -536,23 +520,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Glorpo</t>
+          <t>snnsjfndjs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tilted Towers</t>
+          <t>nkfnkfndk</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75757</v>
+        <v>122232</v>
       </c>
       <c r="F5" t="n">
-        <v>100922846373</v>
+        <v>121213342</v>
       </c>
     </row>
     <row r="6">
@@ -560,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -569,10 +553,10 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>757574</v>
+        <v>8374363</v>
       </c>
       <c r="F6" t="n">
-        <v>230323434543</v>
+        <v>12345678901</v>
       </c>
     </row>
     <row r="7">
@@ -580,22 +564,66 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Glorpo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tilted Towers</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>75757</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100922846373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Schlorpt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>757574</v>
+      </c>
+      <c r="F8" t="n">
+        <v>230323434543</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Glorpo</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Tilted Towers</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>9865463</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>100922846373</v>
       </c>
     </row>
@@ -784,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,21 +837,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>343434</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>10070467433</v>
+        <v>343434</v>
       </c>
     </row>
     <row r="4">
@@ -831,9 +857,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10070467433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10070467433</v>
       </c>
     </row>
@@ -848,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -940,13 +977,15 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>23232</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -954,16 +993,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -971,13 +1010,13 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2,5,3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>21232</v>
+        <v>23232</v>
       </c>
     </row>
     <row r="4">
@@ -985,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1002,12 +1041,43 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1,3,4,5</t>
+          <t>2,5,3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
+        <v>21232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1,3,4,5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>736372</v>
       </c>
     </row>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -492,67 +492,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Jill</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>34323434</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12345678921</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Norge</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>23334343</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12345678922</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kristin Norge</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kristiansand</t>
-        </is>
-      </c>
+          <t>Jill</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>22233666</v>
+        <v>34323434</v>
       </c>
       <c r="F6" t="n">
-        <v>12345678901</v>
+        <v>12345678921</v>
       </c>
     </row>
     <row r="7">
@@ -560,22 +536,70 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>23334343</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12345678922</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kristin Norge</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>22233666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Jon Norge</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Kristiansand</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>22233666</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>12345678901</v>
       </c>
     </row>
@@ -764,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -798,20 +822,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12345678911</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12345678911</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12345678901</v>
       </c>
     </row>
@@ -826,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -918,13 +951,15 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1, 2, 3, 4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>2121</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -932,24 +967,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
@@ -959,7 +990,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="4">
@@ -967,41 +998,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>1, 2, 3, 4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>2121323</v>
       </c>
     </row>
